--- a/artfynd/A 29860-2022.xlsx
+++ b/artfynd/A 29860-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY57"/>
+  <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7799,6 +7799,131 @@
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>111942881</v>
+      </c>
+      <c r="B58" t="n">
+        <v>103627</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1331</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Fläcklungört</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pulmonaria officinalis</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Örup, Sk</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>432299.0285317317</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6152866.674856115</v>
+      </c>
+      <c r="S58" t="n">
+        <v>25</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Tomelilla</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Benestad</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Petra Alinder</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Petra Alinder</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 29860-2022.xlsx
+++ b/artfynd/A 29860-2022.xlsx
@@ -7853,10 +7853,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>432299.0285317317</v>
+        <v>432299</v>
       </c>
       <c r="R58" t="n">
-        <v>6152866.674856115</v>
+        <v>6152867</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7886,19 +7886,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD58" t="b">

--- a/artfynd/A 29860-2022.xlsx
+++ b/artfynd/A 29860-2022.xlsx
@@ -7804,7 +7804,7 @@
         <v>111942881</v>
       </c>
       <c r="B58" t="n">
-        <v>103627</v>
+        <v>104094</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>

--- a/artfynd/A 29860-2022.xlsx
+++ b/artfynd/A 29860-2022.xlsx
@@ -7804,7 +7804,7 @@
         <v>111942881</v>
       </c>
       <c r="B58" t="n">
-        <v>104094</v>
+        <v>104120</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
